--- a/test_data/test-data.xlsx
+++ b/test_data/test-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i\Windows stuff\Desktop\random stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i\Windows stuff\Desktop\псевдоучёба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5686F929-3D7B-43A7-8C3A-69E6CE7105A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E736E-3719-4B26-AC35-BB15719D25E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A597F65-159E-44A3-ACF1-CC2B52884B59}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -47,21 +47,9 @@
     <t>https://www.lamoda.ru/c/6869/clothes-kalsony/?colors=645&amp;size_values=46,48,50</t>
   </si>
   <si>
-    <t>https://market.yandex.ru/catalog--noutbuki/54544/list?rs=eJwzmsJo1M_I1cPIxcvReJxVgEmCQXWl2xZ7Lj6O4_PaWQUYgfzYvN32QOlWoDSDhJ3qTSl3ByB3H5DLCpT1Wbh_P1D1mlkfWAVYgPySieUg_s3zk9gEmIH8n6JH9wL5U340cgiwSzCp9qmxHgDy20F8DglGVc25bAeAxh0FGscGlF6beHh_ACMApEIo2A%2C%2C&amp;viewtype=list&amp;utm_source=market_widget&amp;utm_medium=cpc&amp;utm_campaign=2347842&amp;utm_content=offers-4&amp;utm_term=market_logo&amp;clid=2347842&amp;mclid=1002&amp;pp=920&amp;distr_type=7&amp;text=%D0%9D%D0%BE%D1%83%D1%82%D0%B1%D1%83%D0%BA%D0%B8%20Acer%20Aspire%207%20A715-71G-56BD&amp;hid=91013&amp;allowCollapsing=1&amp;local-offers-first=0&amp;glfilter=7893318%3A267101&amp;glfilter=14806501%3A36763152&amp;glfilter=15938685%3A15938699&amp;glfilter=37699290%3A39025848</t>
-  </si>
-  <si>
-    <t>Ноутбук Acer Aspire 7</t>
-  </si>
-  <si>
-    <t>//div[@class="_3NaXx _33ZFz _2m5MZ"]</t>
-  </si>
-  <si>
     <t>//span[@class="x-product-card-description__price-single x-product-card-description__price-WEB8507_price_no_bold"]</t>
   </si>
   <si>
-    <t>Кальсоны</t>
-  </si>
-  <si>
     <t>apple iphone 12 256gb</t>
   </si>
   <si>
@@ -69,6 +57,9 @@
   </si>
   <si>
     <t>//span[@class="price-text-_YGDY text-text-LurtD text-size-s-BxGpL"]</t>
+  </si>
+  <si>
+    <t>кальсоны</t>
   </si>
 </sst>
 </file>
@@ -444,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E134E0-74D8-4DBB-A8EE-D9887D136B9E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,30 +464,24 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
@@ -504,8 +489,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{77A888C7-4B8D-40B7-B5CB-2045E14ABCAF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{46B8BAA5-9E18-4157-80A5-AEFC1B563964}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>